--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -439,6 +439,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hassan</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hassan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
